--- a/12/Data/green.xlsx
+++ b/12/Data/green.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6a74b15c80f35c5/Documents/GitHub/IIPF/12/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{963D9E05-F193-4366-AF55-EAACCC8F6DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{963D9E05-F193-4366-AF55-EAACCC8F6DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{821FDB60-0DA6-4672-A6C2-9F861E336B8E}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20177" xr2:uid="{5DA4701E-DC36-4158-8EF0-0F84CEF3998D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5DA4701E-DC36-4158-8EF0-0F84CEF3998D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,37 +382,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E43D708-3A53-4CD4-A647-781B922F08A5}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.60799999999999998</v>
       </c>
+      <c r="B1">
+        <v>6.25E-2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.246</v>
       </c>
+      <c r="B2">
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.802</v>
       </c>
+      <c r="B3">
+        <v>0.1875</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.2799999999999998</v>
       </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.62</v>
+      </c>
+      <c r="B5">
+        <v>0.3125</v>
       </c>
     </row>
   </sheetData>
